--- a/ArmServoAngularAccelCalcs.xlsx
+++ b/ArmServoAngularAccelCalcs.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregG\Documents\GitHub\Halloween\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\Halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28056" windowHeight="10992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,8 +25,206 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Greg G</author>
+  </authors>
+  <commentList>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+arm weight 6.4oz
+Servo 2.12 oz
+Servo block 1.3 oz
+pattern plate = 13g
+servo beam 6" ending at balance point (try only one) = 24g 
+angle bracket = 13g
+excluding screws and nuts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+arm weight 6.4oz
+Servo 2.12 oz
+Servo block 1.3 oz
+pattern plate = 13g
+servo beam 6" ending at balance point (try only one) = 24g 
+angle bracket = 13g
+excluding screws and nuts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+arm weight 6.4oz
+Servo 2.12 oz
+Servo block 1.3 oz
+pattern plate = 13g
+servo beam 6" ending at balance point (try only one) = 24g 
+angle bracket = 13g
+excluding screws and nuts</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+arm weight 6.4oz
+Servo 2.4 oz  (HS -7950th)
+Servo block 1.3 oz
+pattern plate = 13g
+servo beam 6" ending at balance point (two) = 24g * 2 
+pattern plate = 13g
+excluding screws and nuts</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Greg</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Greg:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+198 is chosen by setting resolution to normal instead of fine (fine makes it 120 degrees)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Greg</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Unless otherwise specified conditions are existing arm which weighst 6.4 oz and balance point at 12"" from start of arm shoulder which is at the center of the servo spline, with 6 oz weight also added at the 12" point, and using 9 hole channel, weighing 3.03 oz and 7.5" long., to hold arm starting at the center of the servo spline</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
   <si>
     <t>weight of object oz</t>
   </si>
@@ -65,19 +265,203 @@
   </si>
   <si>
     <t>avg deg/sec the arm is moving at (this would be the minimum as at any other angle of the arm gravity is providing less torque because the angle of gravity is not perpendicular to the arm_</t>
+  </si>
+  <si>
+    <t>min pulse width</t>
+  </si>
+  <si>
+    <t>max pulse width</t>
+  </si>
+  <si>
+    <t>min degree</t>
+  </si>
+  <si>
+    <t>max degree</t>
+  </si>
+  <si>
+    <t>min degree limited</t>
+  </si>
+  <si>
+    <t>max degree limited</t>
+  </si>
+  <si>
+    <t>calc min pulse width</t>
+  </si>
+  <si>
+    <t>calc max pulse width</t>
+  </si>
+  <si>
+    <t>Arduino pin</t>
+  </si>
+  <si>
+    <t>TestServo Servo ID in cmd SetServo ID degrees</t>
+  </si>
+  <si>
+    <t>Servo Degree setting for Arm at rest position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Which  Servo </t>
+  </si>
+  <si>
+    <t>Arm Yaw</t>
+  </si>
+  <si>
+    <t>Arm Pitch</t>
+  </si>
+  <si>
+    <t>Arm Roll</t>
+  </si>
+  <si>
+    <t>Head Rotate</t>
+  </si>
+  <si>
+    <t>Head Nod</t>
+  </si>
+  <si>
+    <t>Mouth</t>
+  </si>
+  <si>
+    <t>3 hole pattern plate</t>
+  </si>
+  <si>
+    <t>90 degree bracket</t>
+  </si>
+  <si>
+    <t>5 hole pattern plate</t>
+  </si>
+  <si>
+    <t>weight in oz</t>
+  </si>
+  <si>
+    <t>Servo block (standard)</t>
+  </si>
+  <si>
+    <t>number items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm </t>
+  </si>
+  <si>
+    <t>Total Weight</t>
+  </si>
+  <si>
+    <t>3 hole channel</t>
+  </si>
+  <si>
+    <t>5 hole channel</t>
+  </si>
+  <si>
+    <t>7 hole channel</t>
+  </si>
+  <si>
+    <t>GoBilda 2000 s25-2 ervo</t>
+  </si>
+  <si>
+    <t>Angle Transition</t>
+  </si>
+  <si>
+    <t>180 to 45</t>
+  </si>
+  <si>
+    <t>Secs to transition</t>
+  </si>
+  <si>
+    <t>Data ----&gt;</t>
+  </si>
+  <si>
+    <t>Data End</t>
+  </si>
+  <si>
+    <t>Servo Supply Voltage</t>
+  </si>
+  <si>
+    <t>Servo and conditions</t>
+  </si>
+  <si>
+    <t>Angle Difference</t>
+  </si>
+  <si>
+    <t>Sec/60 degrees</t>
+  </si>
+  <si>
+    <t>goBilda 2000 25-2 Arm Pitch Servo with full unmodified skeleton ARM, with 9 hole cut U channel on first hold centered on spline, start of arm at start of U channel,  and 6 oz added at 12" point on arm from spline</t>
+  </si>
+  <si>
+    <t>goBilda 2000 25-2 Arm Pitch Servo with 31 hole channel (middle first hole is where spline is)  and  then 2.5 oz at approx the 13.26" point from spline.  To produce 141oz in of load torque</t>
+  </si>
+  <si>
+    <t>Hitec HS 7950th  Arm Pitch Servo with 31 hole channel (middle first hole is where spline is)  and  then 2.5 oz at approx the 13.26" point from spline.  To produce 141oz in of load torque</t>
+  </si>
+  <si>
+    <t>165 to 30</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t>Good transition time.  Noise not bad but can still hear it.  Making dead band 2,3, or 4 usec didn't really help noise.  More jerky once reach end point but just may be because torque is so high.</t>
+  </si>
+  <si>
+    <t>quiet when not moving.  Maybe try 7.4 volt supply to increase speed and torque.  Smooth transition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arm Pitch using Hitec HS-7950TH </t>
+  </si>
+  <si>
+    <t>175 to 40  (175  points more straight down than 180)</t>
+  </si>
+  <si>
+    <t>quiet when not moving.  Smooth transition.</t>
+  </si>
+  <si>
+    <t>Elbow Pitch</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,9 +484,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -384,179 +783,1136 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="59" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>90</v>
+      </c>
+      <c r="E1">
+        <v>90</v>
+      </c>
+      <c r="G1">
+        <v>90</v>
+      </c>
+      <c r="I1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>499</v>
+      </c>
+      <c r="E2">
+        <v>200</v>
+      </c>
+      <c r="G2">
+        <v>300</v>
+      </c>
+      <c r="I2">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:E3" si="0">6.4+2.12+(13/28.35)+1.3+((24*0.75)/28.35)+(13/28.35)</f>
+        <v>11.372028218694885</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>11.372028218694885</v>
+      </c>
+      <c r="G3">
+        <f>6.4+2.12+(13/28.35)+1.3+((24*0.75)/28.35)+(13/28.35)</f>
+        <v>11.372028218694885</v>
+      </c>
+      <c r="I3">
+        <f>6.4+2.4+1.3+(13/28.35)+((2*24*0.75)/28.35)+(13/28.35)</f>
+        <v>12.286948853615522</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <f>(454*C3/16)/1000</f>
+        <v>0.32268130070546736</v>
+      </c>
+      <c r="E4">
+        <f>(454*E3/16)/1000</f>
+        <v>0.32268130070546736</v>
+      </c>
+      <c r="G4">
+        <f>(454*G3/16)/1000</f>
+        <v>0.32268130070546736</v>
+      </c>
+      <c r="I4">
+        <f>(454*I3/16)/1000</f>
+        <v>0.34864217372134043</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="G5">
+        <v>12</v>
+      </c>
+      <c r="I5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f>C3*C5*SIN(C1*PI()/180)</f>
+        <v>136.46433862433861</v>
+      </c>
+      <c r="E6">
+        <f>E3*E5*SIN(E1*PI()/180)</f>
+        <v>136.46433862433861</v>
+      </c>
+      <c r="G6">
+        <f>G3*G5*SIN(G1*PI()/180)</f>
+        <v>136.46433862433861</v>
+      </c>
+      <c r="H6">
+        <f>G2/G6</f>
+        <v>2.1983765357618092</v>
+      </c>
+      <c r="I6">
+        <f>I3*I5*SIN(I1*PI()/180)</f>
+        <v>147.44338624338627</v>
+      </c>
+      <c r="J6">
+        <f>I2/I6</f>
+        <v>2.7129056798771294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <f>C2-C6</f>
+        <v>362.53566137566139</v>
+      </c>
+      <c r="E7">
+        <f>E2-E6</f>
+        <v>63.535661375661391</v>
+      </c>
+      <c r="G7">
+        <f>G2-G6</f>
+        <v>163.53566137566139</v>
+      </c>
+      <c r="I7">
+        <f>I2-I6</f>
+        <v>252.55661375661373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <f>C7/141.61193227806</f>
+        <v>2.5600643642359873</v>
+      </c>
+      <c r="E8">
+        <f>E7/141.61193227806</f>
+        <v>0.44866036606934284</v>
+      </c>
+      <c r="G8">
+        <f>G7/141.61193227806</f>
+        <v>1.1548155494026688</v>
+      </c>
+      <c r="I8">
+        <f>I7/141.61193227806</f>
+        <v>1.7834416188934554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <f>C8/(((C5*2.54/100)^2)*C4)</f>
+        <v>85.397893889114954</v>
+      </c>
+      <c r="E9">
+        <f>E8/(((E5*2.54/100)^2)*E4)</f>
+        <v>14.966284000158582</v>
+      </c>
+      <c r="G9">
+        <f>G8/(((G5*2.54/100)^2)*G4)</f>
+        <v>38.522006371047006</v>
+      </c>
+      <c r="I9">
+        <f>I8/(((I5*2.54/100)^2)*I4)</f>
+        <v>55.061628414881227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <f>(C11*C10)+((C9*(C10^2)/2))</f>
+        <v>42.698946944557477</v>
+      </c>
+      <c r="E12">
+        <f>(E11*E10)+((E9*(E10^2)/2))</f>
+        <v>7.4831420000792912</v>
+      </c>
+      <c r="G12">
+        <f>(G11*G10)+((G9*(G10^2)/2))</f>
+        <v>19.261003185523503</v>
+      </c>
+      <c r="I12">
+        <f>(I11*I10)+((I9*(I10^2)/2))</f>
+        <v>27.530814207440613</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <f>(C12*180/PI())/C10</f>
+        <v>2446.4694495761655</v>
+      </c>
+      <c r="E13">
+        <f>(E12*180/PI())/E10</f>
+        <v>428.75245410162893</v>
+      </c>
+      <c r="G13">
+        <f>(G12*180/PI())/G10</f>
+        <v>1103.5741917185308</v>
+      </c>
+      <c r="I13">
+        <f>(I12*180/PI())/I10</f>
+        <v>1577.3994606451515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <f>B17*I17</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4">
+        <v>0.46</v>
+      </c>
+      <c r="I18">
+        <v>2</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ref="J18:J27" si="1">B18*I18</f>
+        <v>0.92</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <f>19/28.35</f>
+        <v>0.67019400352733682</v>
+      </c>
+      <c r="J19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="1"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2.12</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <f t="shared" si="1"/>
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="4">
+        <v>1.27</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1.86</v>
+      </c>
+      <c r="J24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="5">
+        <v>2.44</v>
+      </c>
+      <c r="J25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J28">
+        <f>SUM(J17:J27)</f>
+        <v>11.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="1" max="1" width="43.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.5546875" customWidth="1"/>
+    <col min="6" max="6" width="15.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" customWidth="1"/>
+    <col min="9" max="9" width="21.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>500</v>
+      </c>
+      <c r="C1">
+        <v>500</v>
+      </c>
+      <c r="D1">
+        <v>500</v>
+      </c>
+      <c r="E1">
+        <v>500</v>
+      </c>
+      <c r="F1">
+        <v>800</v>
+      </c>
+      <c r="G1">
+        <v>800</v>
+      </c>
+      <c r="H1">
+        <v>800</v>
+      </c>
+      <c r="I1">
+        <v>900</v>
+      </c>
+      <c r="K1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>2500</v>
+      </c>
+      <c r="C2">
+        <v>2500</v>
+      </c>
+      <c r="D2">
+        <v>2500</v>
+      </c>
+      <c r="E2">
+        <v>2500</v>
+      </c>
+      <c r="F2">
+        <v>2200</v>
+      </c>
+      <c r="G2">
+        <v>2200</v>
+      </c>
+      <c r="H2">
+        <v>2200</v>
+      </c>
+      <c r="I2">
+        <v>2100</v>
+      </c>
+      <c r="K2">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="C4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>300</v>
+      </c>
+      <c r="F4">
+        <v>180</v>
+      </c>
+      <c r="G4">
+        <v>180</v>
+      </c>
+      <c r="H4">
+        <v>180</v>
+      </c>
+      <c r="I4">
+        <v>198</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>120</v>
+      </c>
+      <c r="E6">
+        <v>70</v>
+      </c>
+      <c r="F6">
+        <v>60</v>
+      </c>
+      <c r="G6">
+        <v>45</v>
+      </c>
+      <c r="H6">
+        <v>80</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>180</v>
+      </c>
+      <c r="C7">
+        <v>200</v>
+      </c>
+      <c r="D7">
+        <v>240</v>
+      </c>
+      <c r="E7">
+        <v>190</v>
+      </c>
+      <c r="F7">
+        <v>120</v>
+      </c>
+      <c r="G7">
+        <v>140</v>
+      </c>
+      <c r="H7">
+        <v>110</v>
+      </c>
+      <c r="I7">
+        <v>198</v>
+      </c>
+      <c r="K7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2">
+        <f t="shared" ref="B8:H8" si="0">((B6-B3)*(B2-B1)/(B4-B3))+B1</f>
+        <v>800</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+      <c r="D8" s="2">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="E8" s="2">
+        <f t="shared" si="0"/>
+        <v>966.66666666666674</v>
+      </c>
+      <c r="F8" s="2">
+        <f t="shared" si="0"/>
+        <v>1266.6666666666667</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="0"/>
+        <v>1150</v>
+      </c>
+      <c r="H8" s="2">
+        <f t="shared" si="0"/>
+        <v>1422.2222222222222</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" ref="I8" si="1">((I6-I3)*(I2-I1)/(I4-I3))+I1</f>
+        <v>900</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8" si="2">((K6-K3)*(K2-K1)/(K4-K3))+K1</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="2">
+        <f t="shared" ref="B9:H9" si="3">((B7-B3)*(B2-B1)/(B4-B3))+B1</f>
+        <v>1700</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="3"/>
+        <v>1833.3333333333333</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" si="3"/>
+        <v>2100</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="3"/>
+        <v>1766.6666666666667</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="3"/>
+        <v>1733.3333333333335</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="3"/>
+        <v>1888.8888888888889</v>
+      </c>
+      <c r="H9" s="2">
+        <f t="shared" si="3"/>
+        <v>1655.5555555555557</v>
+      </c>
+      <c r="I9" s="2">
+        <f t="shared" ref="I9" si="4">((I7-I3)*(I2-I1)/(I4-I3))+I1</f>
+        <v>2100</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2">
+        <f t="shared" ref="K9" si="5">((K7-K3)*(K2-K1)/(K4-K3))+K1</f>
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" t="s">
+        <v>29</v>
+      </c>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>90</v>
+      </c>
+      <c r="C12">
+        <v>180</v>
+      </c>
+      <c r="D12">
+        <v>120</v>
+      </c>
+      <c r="E12">
+        <v>180</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <v>110</v>
+      </c>
+      <c r="I12">
+        <v>165</v>
+      </c>
+      <c r="K12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13">
+        <v>44</v>
+      </c>
+      <c r="C13">
+        <v>46</v>
+      </c>
+      <c r="D13">
+        <v>45</v>
+      </c>
+      <c r="E13">
         <v>2</v>
       </c>
-      <c r="B1">
-        <v>90</v>
-      </c>
-      <c r="C1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="F13">
+        <v>11</v>
+      </c>
+      <c r="G13">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>13</v>
+      </c>
+      <c r="I13">
+        <v>46</v>
+      </c>
+      <c r="K13">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="D14">
+        <v>10</v>
+      </c>
+      <c r="E14">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>499</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <f>6.4+2.12</f>
-        <v>8.52</v>
-      </c>
-      <c r="C3">
-        <f>6.4+2.12</f>
-        <v>8.52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <f>(454*B3/16)/1000</f>
-        <v>0.241755</v>
-      </c>
-      <c r="C4">
-        <f>(454*C3/16)/1000</f>
-        <v>0.241755</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>1</v>
       </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <f>B3*B5*SIN(B1*PI()/180)</f>
-        <v>102.24</v>
-      </c>
-      <c r="C6">
-        <f>C3*C5*SIN(C1*PI()/180)</f>
-        <v>102.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <f>B2-B6</f>
-        <v>396.76</v>
-      </c>
-      <c r="C7">
-        <f>C2-C6</f>
-        <v>97.76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <f>B7/141.61193227806</f>
-        <v>2.8017413053933038</v>
-      </c>
-      <c r="C8">
-        <f>C7/141.61193227806</f>
-        <v>0.69033730722665942</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <f>B8/(((B5*2.54/100)^2)*B4)</f>
-        <v>124.74485500630338</v>
-      </c>
-      <c r="C9">
-        <f>C8/(((C5*2.54/100)^2)*C4)</f>
-        <v>30.736609097228097</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H14">
+        <v>2</v>
+      </c>
+      <c r="I14">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <f>(B11*B10)+((B9*(B10^2)/2))</f>
-        <v>62.372427503151691</v>
-      </c>
-      <c r="C12">
-        <f>(C11*C10)+((C9*(C10^2)/2))</f>
-        <v>15.368304548614049</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <f>(B12*180/PI())/B10</f>
-        <v>3573.6768539162913</v>
-      </c>
-      <c r="C13">
-        <f>(C12*180/PI())/C10</f>
-        <v>880.53898890729079</v>
+      <c r="K14">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Q11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15" style="1" customWidth="1"/>
+    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="1">
+        <v>135</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="1">
+        <v>6</v>
+      </c>
+      <c r="E2" s="8">
+        <f>AVERAGE(H2:N2)</f>
+        <v>0.93285714285714294</v>
+      </c>
+      <c r="F2" s="8">
+        <f>60*E2/B2</f>
+        <v>0.41460317460317464</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="1">
+        <v>1.06</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.96</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="K2" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="L2" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="M2" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="N2" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>135</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1">
+        <v>6</v>
+      </c>
+      <c r="E3" s="8">
+        <f>AVERAGE(H3:N3)</f>
+        <v>0.84</v>
+      </c>
+      <c r="F3" s="8">
+        <f>60*E3/B3</f>
+        <v>0.37333333333333335</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="1">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8">
+        <f>AVERAGE(H4:N4)</f>
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="F4" s="8">
+        <f>60*E4/B4</f>
+        <v>0.28777777777777774</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1">
+        <v>135</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="1">
+        <v>6</v>
+      </c>
+      <c r="E5" s="8">
+        <f>AVERAGE(H5:N5)</f>
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="F5" s="8">
+        <f>60*E5/B5</f>
+        <v>0.35666666666666663</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.84</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.83</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.75</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.79</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B6" s="1">
+        <v>135</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="8">
+        <f>AVERAGE(H6:N6)</f>
+        <v>0.67</v>
+      </c>
+      <c r="F6" s="8">
+        <f>60*E6/B6</f>
+        <v>0.29777777777777781</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.62</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.71</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N11" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/ArmServoAngularAccelCalcs.xlsx
+++ b/ArmServoAngularAccelCalcs.xlsx
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1381,7 +1381,7 @@
         <v>70</v>
       </c>
       <c r="F6">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>45</v>
@@ -1450,7 +1450,7 @@
       </c>
       <c r="F8" s="2">
         <f t="shared" si="0"/>
-        <v>1266.6666666666667</v>
+        <v>1150</v>
       </c>
       <c r="G8" s="2">
         <f t="shared" si="0"/>

--- a/ArmServoAngularAccelCalcs.xlsx
+++ b/ArmServoAngularAccelCalcs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\GitHub\Halloween\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GregG\Documents\GitHub\Halloween\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28056" windowHeight="10992" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28050" windowHeight="10995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -159,6 +159,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Greg</author>
+    <author>Greg G</author>
   </authors>
   <commentList>
     <comment ref="I4" authorId="0" shapeId="0">
@@ -169,7 +170,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Greg:</t>
         </r>
@@ -178,10 +179,34 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 198 is chosen by setting resolution to normal instead of fine (fine makes it 120 degrees)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A16" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Greg G:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Degree setting sent to Servo device write method that will put servo position at its actual Center Point Pulse width. This allows all recording, etc to be reused as is, as the degree settings are translated to the correct pulse width to match a prior arbitrary servo position the user desires</t>
         </r>
       </text>
     </comment>
@@ -224,7 +249,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="72">
   <si>
     <t>weight of object oz</t>
   </si>
@@ -415,13 +440,43 @@
   </si>
   <si>
     <t>Elbow Pitch</t>
+  </si>
+  <si>
+    <t>Center Point  pulse width</t>
+  </si>
+  <si>
+    <t>Center Point degrees</t>
+  </si>
+  <si>
+    <t>Remapped servo device  degree limited min</t>
+  </si>
+  <si>
+    <t>Remapped servo device  degree limited max</t>
+  </si>
+  <si>
+    <t>degree/pulse width</t>
+  </si>
+  <si>
+    <t>pulse width/degree</t>
+  </si>
+  <si>
+    <t>Remapped servo device  degree limited min calculated pulse width</t>
+  </si>
+  <si>
+    <t>Remapped servo device  degree limited max calculated pulse width</t>
+  </si>
+  <si>
+    <t>Remapped servo device degree want associated with actual servo Center Point degree</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,19 +505,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -484,7 +526,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -504,6 +546,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -790,15 +833,15 @@
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="59" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -815,7 +858,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,7 +875,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -853,7 +896,7 @@
         <v>12.286948853615522</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -874,7 +917,7 @@
         <v>0.34864217372134043</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -891,7 +934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -920,7 +963,7 @@
         <v>2.7129056798771294</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -941,7 +984,7 @@
         <v>252.55661375661373</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -962,7 +1005,7 @@
         <v>1.7834416188934554</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -983,7 +1026,7 @@
         <v>55.061628414881227</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1000,7 +1043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1017,7 +1060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
@@ -1038,7 +1081,7 @@
         <v>27.530814207440613</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
@@ -1059,17 +1102,17 @@
         <v>1577.3994606451515</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I15" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -1084,7 +1127,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
@@ -1099,7 +1142,7 @@
         <v>0.92</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>33</v>
       </c>
@@ -1112,7 +1155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -1127,7 +1170,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
@@ -1142,7 +1185,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>37</v>
       </c>
@@ -1157,7 +1200,7 @@
         <v>6.4</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>39</v>
       </c>
@@ -1169,7 +1212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -1181,7 +1224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>41</v>
       </c>
@@ -1193,16 +1236,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -1219,25 +1262,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.5546875" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" customWidth="1"/>
-    <col min="9" max="9" width="21.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="61.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1">
@@ -1268,8 +1311,8 @@
         <v>500</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B2">
@@ -1300,8 +1343,8 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B3">
@@ -1332,8 +1375,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B4">
@@ -1364,279 +1407,462 @@
         <v>300</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2">
+        <f>(K2+K1)/2</f>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2">
+        <f>(K4+K3)/2</f>
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="9">
+        <f>(K4-K3)/(K2-K1)</f>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="9">
+        <f>1/K7</f>
+        <v>6.666666666666667</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B6">
+      <c r="B10">
         <v>45</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>120</v>
       </c>
-      <c r="E6">
+      <c r="E10">
         <v>70</v>
       </c>
-      <c r="F6">
+      <c r="F10">
         <v>45</v>
       </c>
-      <c r="G6">
+      <c r="G10">
         <v>45</v>
       </c>
-      <c r="H6">
+      <c r="H10">
         <v>80</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7">
+      <c r="B11">
         <v>180</v>
       </c>
-      <c r="C7">
+      <c r="C11">
         <v>200</v>
       </c>
-      <c r="D7">
+      <c r="D11">
         <v>240</v>
       </c>
-      <c r="E7">
+      <c r="E11">
         <v>190</v>
       </c>
-      <c r="F7">
+      <c r="F11">
         <v>120</v>
       </c>
-      <c r="G7">
+      <c r="G11">
         <v>140</v>
       </c>
-      <c r="H7">
+      <c r="H11">
         <v>110</v>
       </c>
-      <c r="I7">
+      <c r="I11">
         <v>198</v>
       </c>
-      <c r="K7">
+      <c r="K11">
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="2">
-        <f t="shared" ref="B8:H8" si="0">((B6-B3)*(B2-B1)/(B4-B3))+B1</f>
+      <c r="B12" s="2">
+        <f>((B10-B3)*(B2-B1)/(B4-B3))+B1</f>
         <v>800</v>
       </c>
-      <c r="C8" s="2">
-        <f t="shared" si="0"/>
+      <c r="C12" s="2">
+        <f>((C10-C3)*(C2-C1)/(C4-C3))+C1</f>
         <v>500</v>
       </c>
-      <c r="D8" s="2">
-        <f t="shared" si="0"/>
+      <c r="D12" s="2">
+        <f>((D10-D3)*(D2-D1)/(D4-D3))+D1</f>
         <v>1300</v>
       </c>
-      <c r="E8" s="2">
-        <f t="shared" si="0"/>
+      <c r="E12" s="2">
+        <f>((E10-E3)*(E2-E1)/(E4-E3))+E1</f>
         <v>966.66666666666674</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="0"/>
+      <c r="F12" s="2">
+        <f>((F10-F3)*(F2-F1)/(F4-F3))+F1</f>
         <v>1150</v>
       </c>
-      <c r="G8" s="2">
-        <f t="shared" si="0"/>
+      <c r="G12" s="2">
+        <f>((G10-G3)*(G2-G1)/(G4-G3))+G1</f>
         <v>1150</v>
       </c>
-      <c r="H8" s="2">
-        <f t="shared" si="0"/>
+      <c r="H12" s="2">
+        <f>((H10-H3)*(H2-H1)/(H4-H3))+H1</f>
         <v>1422.2222222222222</v>
       </c>
-      <c r="I8" s="2">
-        <f t="shared" ref="I8" si="1">((I6-I3)*(I2-I1)/(I4-I3))+I1</f>
+      <c r="I12" s="2">
+        <f>((I10-I3)*(I2-I1)/(I4-I3))+I1</f>
         <v>900</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2">
-        <f t="shared" ref="K8" si="2">((K6-K3)*(K2-K1)/(K4-K3))+K1</f>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2">
+        <f>((K10-K3)*(K2-K1)/(K4-K3))+K1</f>
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="2">
-        <f t="shared" ref="B9:H9" si="3">((B7-B3)*(B2-B1)/(B4-B3))+B1</f>
+      <c r="B13" s="2">
+        <f>((B11-B3)*(B2-B1)/(B4-B3))+B1</f>
         <v>1700</v>
       </c>
-      <c r="C9" s="2">
-        <f t="shared" si="3"/>
+      <c r="C13" s="2">
+        <f>((C11-C3)*(C2-C1)/(C4-C3))+C1</f>
         <v>1833.3333333333333</v>
       </c>
-      <c r="D9" s="2">
-        <f t="shared" si="3"/>
+      <c r="D13" s="2">
+        <f>((D11-D3)*(D2-D1)/(D4-D3))+D1</f>
         <v>2100</v>
       </c>
-      <c r="E9" s="2">
-        <f t="shared" si="3"/>
+      <c r="E13" s="2">
+        <f>((E11-E3)*(E2-E1)/(E4-E3))+E1</f>
         <v>1766.6666666666667</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="3"/>
+      <c r="F13" s="2">
+        <f>((F11-F3)*(F2-F1)/(F4-F3))+F1</f>
         <v>1733.3333333333335</v>
       </c>
-      <c r="G9" s="2">
-        <f t="shared" si="3"/>
+      <c r="G13" s="2">
+        <f>((G11-G3)*(G2-G1)/(G4-G3))+G1</f>
         <v>1888.8888888888889</v>
       </c>
-      <c r="H9" s="2">
-        <f t="shared" si="3"/>
+      <c r="H13" s="2">
+        <f>((H11-H3)*(H2-H1)/(H4-H3))+H1</f>
         <v>1655.5555555555557</v>
       </c>
-      <c r="I9" s="2">
-        <f t="shared" ref="I9" si="4">((I7-I3)*(I2-I1)/(I4-I3))+I1</f>
+      <c r="I13" s="2">
+        <f>((I11-I3)*(I2-I1)/(I4-I3))+I1</f>
         <v>2100</v>
       </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2">
-        <f t="shared" ref="K9" si="5">((K7-K3)*(K2-K1)/(K4-K3))+K1</f>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2">
+        <f>((K11-K3)*(K2-K1)/(K4-K3))+K1</f>
         <v>1700</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2">
+        <f>((K17-K16)*K8)+K5</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2">
+        <f>((K18-K16)*K8)+K5</f>
+        <v>1833.3333333333335</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B22" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C22" t="s">
         <v>26</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D22" t="s">
         <v>27</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E22" t="s">
         <v>62</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F22" t="s">
         <v>28</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G22" t="s">
         <v>29</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H22" t="s">
         <v>30</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I22" t="s">
         <v>59</v>
       </c>
-      <c r="K11" t="s">
+      <c r="K22" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B12">
+      <c r="B23">
         <v>90</v>
       </c>
-      <c r="C12">
+      <c r="C23">
         <v>180</v>
       </c>
-      <c r="D12">
+      <c r="D23">
         <v>120</v>
       </c>
-      <c r="E12">
+      <c r="E23">
         <v>180</v>
       </c>
-      <c r="F12">
+      <c r="F23">
         <v>90</v>
       </c>
-      <c r="G12">
+      <c r="G23">
         <v>90</v>
       </c>
-      <c r="H12">
+      <c r="H23">
         <v>110</v>
       </c>
-      <c r="I12">
+      <c r="I23">
         <v>165</v>
       </c>
-      <c r="K12">
+      <c r="K23">
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B13">
+      <c r="B24">
         <v>44</v>
       </c>
-      <c r="C13">
+      <c r="C24">
         <v>46</v>
       </c>
-      <c r="D13">
+      <c r="D24">
         <v>45</v>
       </c>
-      <c r="E13">
+      <c r="E24">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="F24">
         <v>11</v>
       </c>
-      <c r="G13">
+      <c r="G24">
         <v>12</v>
       </c>
-      <c r="H13">
+      <c r="H24">
         <v>13</v>
       </c>
-      <c r="I13">
+      <c r="I24">
         <v>46</v>
       </c>
-      <c r="K13">
+      <c r="K24">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B14">
+      <c r="B25">
         <v>11</v>
       </c>
-      <c r="C14">
+      <c r="C25">
         <v>9</v>
       </c>
-      <c r="D14">
+      <c r="D25">
         <v>10</v>
       </c>
-      <c r="E14">
+      <c r="E25">
         <v>4</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
         <v>1</v>
       </c>
-      <c r="H14">
+      <c r="H25">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="I25">
         <v>9</v>
       </c>
-      <c r="K14">
+      <c r="K25">
         <v>9</v>
       </c>
     </row>
@@ -1655,18 +1881,18 @@
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="19.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="27.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.88671875" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>43</v>
       </c>
@@ -1695,7 +1921,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="1" customFormat="1" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="1" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>44</v>
       </c>
@@ -1742,7 +1968,7 @@
       </c>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>44</v>
       </c>
@@ -1788,7 +2014,7 @@
         <v>0.79</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="144" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="165" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>55</v>
       </c>
@@ -1828,7 +2054,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>60</v>
       </c>
@@ -1868,7 +2094,7 @@
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
     </row>
-    <row r="6" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1908,7 +2134,7 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="N11" s="4"/>
     </row>
   </sheetData>
